--- a/biology/Botanique/Begonia_ferruginea/Begonia_ferruginea.xlsx
+++ b/biology/Botanique/Begonia_ferruginea/Begonia_ferruginea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Begonia ferruginea est une espèce de plantes de la famille des Begoniaceae. Ce bégonia est originaire du nord de l'Amérique du Sud. L'espèce fait partie de la section Casparya. Elle a été décrite en 1782 par Carl von Linné le Jeune (1741-1783). L'épithète spécifique ferruginea signifie « de couleur rouille »[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Begonia ferruginea est une espèce de plantes de la famille des Begoniaceae. Ce bégonia est originaire du nord de l'Amérique du Sud. L'espèce fait partie de la section Casparya. Elle a été décrite en 1782 par Carl von Linné le Jeune (1741-1783). L'épithète spécifique ferruginea signifie « de couleur rouille ».
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est originaire des pays suivants : Colombie ; Venezuela[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est originaire des pays suivants : Colombie ; Venezuela.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (6 février 2017)[4] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (6 février 2017) (Attention liste brute contenant possiblement des synonymes) :
 variété Begonia ferruginea var. dilatata L.B. Sm. &amp; B.G. Schub.
 variété Begonia ferruginea var. ferruginea</t>
         </is>
